--- a/IADC_WELL_RPT_reg_color.xlsx
+++ b/IADC_WELL_RPT_reg_color.xlsx
@@ -28,19 +28,19 @@
     <t>date</t>
   </si>
   <si>
+    <t>MENAM</t>
+  </si>
+  <si>
     <t>NORTH SEA</t>
   </si>
   <si>
     <t>WEST AFRICA</t>
   </si>
   <si>
-    <t>MENAM</t>
+    <t>SOUTH EAST ASIA</t>
   </si>
   <si>
     <t>INDIA</t>
-  </si>
-  <si>
-    <t>SOUTH EAST ASIA</t>
   </si>
   <si>
     <t>WHITE</t>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -453,13 +453,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>44986</v>
@@ -470,13 +470,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>44986</v>
@@ -487,13 +487,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>44986</v>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -521,10 +521,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -538,13 +538,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>406</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
         <v>44987</v>
@@ -555,13 +555,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>44987</v>
@@ -572,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>277</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -592,7 +592,7 @@
         <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -606,13 +606,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2">
         <v>44988</v>
@@ -626,7 +626,7 @@
         <v>617</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -640,13 +640,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>727</v>
+        <v>625</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2">
         <v>44988</v>
@@ -657,7 +657,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>625</v>
+        <v>515</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -674,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -691,10 +691,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>907</v>
+        <v>818</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -711,7 +711,7 @@
         <v>851</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -725,13 +725,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>818</v>
+        <v>895</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2">
         <v>44989</v>
@@ -745,7 +745,7 @@
         <v>849</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -759,13 +759,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E21" s="2">
         <v>44989</v>
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1173</v>
+        <v>1164</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" s="2">
         <v>44990</v>
@@ -793,10 +793,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1266</v>
+        <v>1173</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -810,13 +810,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1045</v>
+        <v>1266</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="2">
         <v>44990</v>
@@ -827,13 +827,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" s="2">
         <v>44990</v>
@@ -844,13 +844,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1161</v>
+        <v>1037</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2">
         <v>44990</v>
@@ -861,10 +861,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1406</v>
+        <v>1374</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1374</v>
+        <v>1406</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -895,13 +895,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1362</v>
+        <v>1305</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2">
         <v>44991</v>
@@ -912,13 +912,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1330</v>
+        <v>1454</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2">
         <v>44991</v>
@@ -929,13 +929,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1454</v>
+        <v>1408</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31" s="2">
         <v>44991</v>
@@ -946,13 +946,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1603</v>
+        <v>1783</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2">
         <v>44992</v>
@@ -966,7 +966,7 @@
         <v>1711</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -983,7 +983,7 @@
         <v>1709</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -997,13 +997,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1783</v>
+        <v>1603</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2">
         <v>44992</v>
@@ -1014,13 +1014,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1645</v>
+        <v>1602</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2">
         <v>44992</v>
@@ -1031,13 +1031,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1930</v>
+        <v>1996</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2">
         <v>44993</v>
@@ -1048,13 +1048,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1891</v>
+        <v>1990</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2">
         <v>44993</v>
@@ -1065,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1996</v>
+        <v>1891</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1082,10 +1082,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1990</v>
+        <v>1889</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -1099,13 +1099,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1889</v>
+        <v>1898</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="2">
         <v>44993</v>
@@ -1119,7 +1119,7 @@
         <v>2249</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1133,10 +1133,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2201</v>
+        <v>2152</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1150,13 +1150,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2217</v>
+        <v>2139</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2">
         <v>44994</v>
@@ -1167,10 +1167,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2152</v>
+        <v>2138</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1184,13 +1184,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2190</v>
+        <v>2201</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2">
         <v>44994</v>
@@ -1201,10 +1201,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2494</v>
+        <v>2389</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1221,7 +1221,7 @@
         <v>2449</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -1235,13 +1235,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>2391</v>
+        <v>2494</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="2">
         <v>44995</v>
@@ -1252,10 +1252,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>2416</v>
+        <v>2428</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -1269,13 +1269,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2454</v>
+        <v>2417</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="2">
         <v>44995</v>
@@ -1286,13 +1286,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2658</v>
+        <v>2703</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2">
         <v>44996</v>
@@ -1303,10 +1303,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2691</v>
+        <v>2765</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -1320,10 +1320,10 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2703</v>
+        <v>2660</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -1337,10 +1337,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>2748</v>
+        <v>2735</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1354,10 +1354,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2735</v>
+        <v>2748</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1371,7 +1371,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2992</v>
+        <v>2903</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1388,10 +1388,10 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2911</v>
+        <v>2957</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1405,13 +1405,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>2991</v>
+        <v>2911</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="2">
         <v>44997</v>
@@ -1422,13 +1422,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2955</v>
+        <v>2992</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="2">
         <v>44997</v>
@@ -1439,10 +1439,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -1456,13 +1456,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3241</v>
+        <v>3154</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="2">
         <v>44998</v>
@@ -1473,13 +1473,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" s="2">
         <v>44998</v>
@@ -1490,10 +1490,10 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3298</v>
+        <v>3215</v>
       </c>
       <c r="C64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1507,13 +1507,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3159</v>
+        <v>3298</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="2">
         <v>44998</v>
@@ -1524,13 +1524,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2">
         <v>44998</v>
@@ -1541,10 +1541,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3460</v>
+        <v>3517</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -1558,10 +1558,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3623</v>
+        <v>3411</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -1575,10 +1575,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3636</v>
+        <v>3547</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1592,10 +1592,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3547</v>
+        <v>3462</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1609,10 +1609,10 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3462</v>
+        <v>3636</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -1626,13 +1626,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3722</v>
+        <v>3737</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2">
         <v>45000</v>
@@ -1643,10 +1643,10 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3912</v>
+        <v>3784</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -1660,10 +1660,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3737</v>
+        <v>3881</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -1680,7 +1680,7 @@
         <v>3827</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1694,13 +1694,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>3881</v>
+        <v>3769</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" s="2">
         <v>45000</v>
@@ -1711,10 +1711,10 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>4188</v>
+        <v>3966</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -1728,10 +1728,10 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3966</v>
+        <v>3986</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
@@ -1745,13 +1745,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>3968</v>
+        <v>4186</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2">
         <v>45001</v>
@@ -1762,10 +1762,10 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4094</v>
+        <v>4011</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -1779,7 +1779,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4011</v>
+        <v>4094</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -1796,13 +1796,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4397</v>
+        <v>4311</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" s="2">
         <v>45002</v>
@@ -1813,13 +1813,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4217</v>
+        <v>4397</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="2">
         <v>45002</v>
@@ -1830,10 +1830,10 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4193</v>
+        <v>4217</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -1850,7 +1850,7 @@
         <v>4272</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1867,7 +1867,7 @@
         <v>4679</v>
       </c>
       <c r="C86" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -1881,13 +1881,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4498</v>
+        <v>4540</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="2">
         <v>45003</v>
@@ -1898,10 +1898,10 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>4478</v>
+        <v>4468</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -1915,10 +1915,10 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>4669</v>
+        <v>4546</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -1932,10 +1932,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4910</v>
+        <v>4828</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -1949,13 +1949,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4882</v>
+        <v>4910</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E91" s="2">
         <v>45004</v>
@@ -1966,10 +1966,10 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4842</v>
+        <v>4877</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -1983,10 +1983,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4906</v>
+        <v>4807</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -2000,13 +2000,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4788</v>
+        <v>4872</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E94" s="2">
         <v>45004</v>
@@ -2017,13 +2017,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>5093</v>
+        <v>5192</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E95" s="2">
         <v>45005</v>
@@ -2034,13 +2034,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5069</v>
+        <v>5116</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E96" s="2">
         <v>45005</v>
@@ -2051,13 +2051,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5192</v>
+        <v>5147</v>
       </c>
       <c r="C97" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2">
         <v>45005</v>
@@ -2068,10 +2068,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5224</v>
+        <v>5054</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -2085,13 +2085,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5368</v>
+        <v>5463</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E99" s="2">
         <v>45006</v>
@@ -2102,13 +2102,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5516</v>
+        <v>5425</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E100" s="2">
         <v>45006</v>
@@ -2119,10 +2119,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5463</v>
+        <v>5393</v>
       </c>
       <c r="C101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -2136,13 +2136,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>5441</v>
+        <v>5333</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" s="2">
         <v>45006</v>
@@ -2153,13 +2153,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5333</v>
+        <v>5391</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2">
         <v>45006</v>
@@ -2170,10 +2170,10 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5632</v>
+        <v>5611</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -2187,10 +2187,10 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5642</v>
+        <v>5742</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -2204,13 +2204,13 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5905</v>
+        <v>5674</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E106" s="2">
         <v>45007</v>
@@ -2221,10 +2221,10 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5766</v>
+        <v>5716</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -2238,7 +2238,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5674</v>
+        <v>5766</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2255,7 +2255,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6035</v>
+        <v>6003</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
@@ -2272,7 +2272,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5929</v>
+        <v>6035</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -2289,10 +2289,10 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6021</v>
+        <v>6042</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
@@ -2306,13 +2306,13 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6147</v>
+        <v>5998</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="2">
         <v>45008</v>
@@ -2326,7 +2326,7 @@
         <v>6077</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>

--- a/IADC_WELL_RPT_reg_color.xlsx
+++ b/IADC_WELL_RPT_reg_color.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -861,10 +861,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1374</v>
+        <v>1305</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -878,10 +878,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1406</v>
+        <v>1374</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -895,10 +895,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1305</v>
+        <v>1406</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -912,13 +912,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1454</v>
+        <v>1408</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="2">
         <v>44991</v>
@@ -929,13 +929,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1408</v>
+        <v>1454</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2">
         <v>44991</v>
@@ -963,10 +963,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1711</v>
+        <v>1602</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -980,10 +980,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1709</v>
+        <v>1603</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -997,10 +997,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1603</v>
+        <v>1709</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1014,10 +1014,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1602</v>
+        <v>1711</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -1031,10 +1031,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1996</v>
+        <v>1889</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1048,10 +1048,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1990</v>
+        <v>1891</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -1065,13 +1065,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1891</v>
+        <v>1898</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" s="2">
         <v>44993</v>
@@ -1082,10 +1082,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1889</v>
+        <v>1990</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -1099,13 +1099,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1898</v>
+        <v>1996</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2">
         <v>44993</v>
@@ -1116,10 +1116,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>2249</v>
+        <v>2138</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -1133,10 +1133,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>2152</v>
+        <v>2139</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1150,10 +1150,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>2139</v>
+        <v>2152</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -1167,10 +1167,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>2138</v>
+        <v>2201</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1184,10 +1184,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>2201</v>
+        <v>2249</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -1201,10 +1201,10 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>2389</v>
+        <v>2417</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1269,10 +1269,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2417</v>
+        <v>2389</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1286,13 +1286,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>2703</v>
+        <v>2765</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" s="2">
         <v>44996</v>
@@ -1303,10 +1303,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>2765</v>
+        <v>2660</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -1320,13 +1320,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>2660</v>
+        <v>2748</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="2">
         <v>44996</v>
@@ -1354,10 +1354,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>2748</v>
+        <v>2703</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -1371,10 +1371,10 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>2903</v>
+        <v>2992</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1422,10 +1422,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>2992</v>
+        <v>2903</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -1473,13 +1473,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3337</v>
+        <v>3298</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="2">
         <v>44998</v>
@@ -1507,10 +1507,10 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>3298</v>
+        <v>3336</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1524,13 +1524,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" s="2">
         <v>44998</v>
@@ -1541,13 +1541,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3517</v>
+        <v>3547</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="2">
         <v>44999</v>
@@ -1558,13 +1558,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>3411</v>
+        <v>3636</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2">
         <v>44999</v>
@@ -1575,10 +1575,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3547</v>
+        <v>3462</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -1592,13 +1592,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>3462</v>
+        <v>3517</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="2">
         <v>44999</v>
@@ -1609,13 +1609,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>3636</v>
+        <v>3411</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" s="2">
         <v>44999</v>
@@ -1626,13 +1626,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>3737</v>
+        <v>3784</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" s="2">
         <v>45000</v>
@@ -1643,13 +1643,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3784</v>
+        <v>3881</v>
       </c>
       <c r="C73" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" s="2">
         <v>45000</v>
@@ -1660,10 +1660,10 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>3881</v>
+        <v>3827</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -1677,10 +1677,10 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3827</v>
+        <v>3737</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1711,13 +1711,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3966</v>
+        <v>4094</v>
       </c>
       <c r="C77" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="2">
         <v>45001</v>
@@ -1745,10 +1745,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>4186</v>
+        <v>4011</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -1762,13 +1762,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>4011</v>
+        <v>3966</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" s="2">
         <v>45001</v>
@@ -1779,10 +1779,10 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4094</v>
+        <v>4186</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -1796,10 +1796,10 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>4311</v>
+        <v>4217</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -1813,13 +1813,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>4397</v>
+        <v>4311</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" s="2">
         <v>45002</v>
@@ -1830,13 +1830,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4217</v>
+        <v>4272</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E84" s="2">
         <v>45002</v>
@@ -1847,10 +1847,10 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>4272</v>
+        <v>4397</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1864,10 +1864,10 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>4679</v>
+        <v>4540</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -1881,10 +1881,10 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>4540</v>
+        <v>4679</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
         <v>9</v>
@@ -1932,10 +1932,10 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4828</v>
+        <v>4910</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -1949,10 +1949,10 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>4910</v>
+        <v>4872</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -1966,13 +1966,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4877</v>
+        <v>4828</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E92" s="2">
         <v>45004</v>
@@ -1983,10 +1983,10 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4807</v>
+        <v>4877</v>
       </c>
       <c r="C93" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -2000,13 +2000,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>4872</v>
+        <v>4807</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" s="2">
         <v>45004</v>
@@ -2187,13 +2187,13 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5742</v>
+        <v>5766</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" s="2">
         <v>45007</v>
@@ -2238,13 +2238,13 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5766</v>
+        <v>5742</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" s="2">
         <v>45007</v>
@@ -2255,10 +2255,10 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6003</v>
+        <v>6042</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
@@ -2272,10 +2272,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6035</v>
+        <v>6003</v>
       </c>
       <c r="C110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -2289,13 +2289,13 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6042</v>
+        <v>5998</v>
       </c>
       <c r="C111" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2">
         <v>45008</v>
@@ -2306,10 +2306,10 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5998</v>
+        <v>6077</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -2323,16 +2323,115 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6077</v>
+        <v>6035</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" s="2">
         <v>45008</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>6348</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>6302</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>6253</v>
+      </c>
+      <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>6254</v>
+      </c>
+      <c r="C117" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>6276</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>6546</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45021</v>
       </c>
     </row>
   </sheetData>
